--- a/7RMART/src/test/resources/testdata.xlsx
+++ b/7RMART/src/test/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshma\eclipse-workspace\7RMART\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshma\git\7RMartProjectRepo\7RMART\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9950054-D9F7-4568-B98B-D6483732DFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E16817C-8E7A-445D-9C70-78F0958056D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17904" windowHeight="8880" firstSheet="5" activeTab="7" xr2:uid="{4CB59F94-1B42-47E7-8B11-6B11D7C0127B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17904" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{4CB59F94-1B42-47E7-8B11-6B11D7C0127B}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -495,20 +495,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B15588-01E3-4182-BA00-4C3191EABB83}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -520,9 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8EC3AD-ACE3-45CD-98BA-B1D637B18753}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -662,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7917A31C-7357-4965-AEC2-E28E12612B10}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
